--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijvolkov/Desktop/async_menu_app/src/admin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijvolkov/Desktop/async_menu_app/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DF38F1-899C-5B4C-99FC-230D8C9050BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D40495-0F34-2340-895B-DBD9F2155E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>185.5</v>
+        <v>320.43</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijvolkov/Desktop/async_menu_app/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D40495-0F34-2340-895B-DBD9F2155E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537ED32A-277F-5047-B9B1-818577AF1E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>320.43</v>
+        <v>105.23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
